--- a/data/figure_sources.xlsx
+++ b/data/figure_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myuva-my.sharepoint.com/personal/eam5hc_virginia_edu/Documents/projects/regional-equity-profile/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="579" documentId="8_{81044BCD-D1E6-1E42-9658-FC23DC6FACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{920C4D05-E81E-8C4C-8CDA-719CC5464A02}"/>
+  <xr:revisionPtr revIDLastSave="585" documentId="8_{81044BCD-D1E6-1E42-9658-FC23DC6FACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C75714-E844-7648-ADBE-5AE5CCDFF348}"/>
   <bookViews>
-    <workbookView xWindow="34960" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{57E835BD-CF7A-F049-9AE5-CED29DB282B2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{57E835BD-CF7A-F049-9AE5-CED29DB282B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Profile" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Albemarle Profile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,83 +38,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
-  <si>
-    <t>Figure 6.3: Trends in Work and Living Locations in Charlottesville and Albemarle for 2002, 2012, 2022.</t>
-  </si>
-  <si>
-    <t>Figure 2.1: White and Non-White Population Composition, 1790-2020.</t>
-  </si>
-  <si>
-    <t>Figure 2.2: Population Composition by Race &amp; Ethnicity, 2013-2023.</t>
-  </si>
-  <si>
-    <t>Figure 2.3: Limited &amp; Non-Limited English Speaking Households, 2023.</t>
-  </si>
-  <si>
-    <t>Figure 2.4: Limited &amp; Non-Limited English Speaking Households by Language, 2023.</t>
-  </si>
-  <si>
-    <t>Figure 2.5: Disability Status by Age Group, 2023.</t>
-  </si>
-  <si>
-    <t>Figure 2.6: Number of people identifying as having a particular disability, 2023.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
   <si>
     <t>Table 1: American Human Developement Index: Local and State-wide Comparison</t>
   </si>
   <si>
-    <t>Figure 4.1: Average Life Expectancy, 2019-2024.</t>
-  </si>
-  <si>
-    <t>Figure 4.2: Primary care and mental health care providers, 2016-2024.</t>
-  </si>
-  <si>
-    <t>Figure 4.3: Residents with No Health Insurance, 2017-2023.</t>
-  </si>
-  <si>
-    <t>Figure 4.4: Access to Parks &amp; Exercise Opportunities, 2020-2024.</t>
-  </si>
-  <si>
-    <t>Figure 5.1: Educational Attainment in Charlottesville and Albemarle, 2018-2023.</t>
-  </si>
-  <si>
-    <t>Figure 5.2: Educational Attainment by Race/Ethnicity for the population 25 years and over, 2023.</t>
-  </si>
-  <si>
-    <t>Figure 5.3: School Enrollment in Charlottesville and Albemarle, 2018-2023.</t>
-  </si>
-  <si>
     <t>Table 2: Child Care Supply</t>
   </si>
   <si>
-    <t>Figure 5.4: Civic Sector Membership Organizations, 2017-2024.</t>
-  </si>
-  <si>
-    <t>Figure 6.1: Median Personal Earnings, 2012-2023.</t>
-  </si>
-  <si>
-    <t>Figure 6.2: Median Household Income by Race/Ethnicity, 2023.</t>
-  </si>
-  <si>
-    <t>Figure 6.4: Housing Status, 2023.</t>
-  </si>
-  <si>
-    <t>Figure 6.5: Rent Burdened Households, 2023.</t>
-  </si>
-  <si>
-    <t>Figure 6.6: Cases Filed and Eviction Judgments within Local Court Jurisdictions, 2018-2024.</t>
-  </si>
-  <si>
-    <t>Figure 6.7: Point-in-Time Count of People Experiencing Homelessness in the Blue Ridge Area Continuum of Care (CoC), 2007-2024.</t>
-  </si>
-  <si>
-    <t>Figure 6.8: McKinney-Vento: Students Experiencing Homelessness Enrolled in Charlottesville City Schools and Albemarle County Public Schools, 2010-11 through 2022-23 school years.</t>
-  </si>
-  <si>
-    <t>Figure 6.9: Housing Inventory Count: Year-Round, Seasonal Beds and Permanent Housing Available for People Experiencing Homelessness in the Blue Ridge Area Continuum of Care (CoC), 2009-2024.</t>
-  </si>
-  <si>
     <t>Figure</t>
   </si>
   <si>
@@ -287,9 +217,6 @@
     <t>Data prepared by the Charlottesville Fire Department including responses from the Charlottesville-Albemarle Rescue Squad over the period 12/1/16-7/10/24</t>
   </si>
   <si>
-    <t>Child Care Aware of Virginia</t>
-  </si>
-  <si>
     <t>Data from Virginia's General District Courts was provided by the Civil Court Data Initiative at Legal Services Corporation.</t>
   </si>
   <si>
@@ -399,6 +326,75 @@
   </si>
   <si>
     <t>See Source for Figure 3.6</t>
+  </si>
+  <si>
+    <t>Child Care Supply Data by Locality, Child Care Aware of Virginia. https://vachildcare.com/data-2/child-care-supply-data-by-locality/</t>
+  </si>
+  <si>
+    <t>Figure 1.1: White and Non-White Population Composition, 1790-2020.</t>
+  </si>
+  <si>
+    <t>Figure 1.3: Limited &amp; Non-Limited English Speaking Households, 2023.</t>
+  </si>
+  <si>
+    <t>Figure 1.4: Limited &amp; Non-Limited English Speaking Households by Language, 2023.</t>
+  </si>
+  <si>
+    <t>Figure 1.5: Disability Status by Age Group, 2023.</t>
+  </si>
+  <si>
+    <t>Figure 1.6: Number of people identifying as having a particular disability, 2023.</t>
+  </si>
+  <si>
+    <t>Figure 3.1: Average Life Expectancy, 2019-2024.</t>
+  </si>
+  <si>
+    <t>Figure 3.2: Primary care and mental health care providers, 2016-2024.</t>
+  </si>
+  <si>
+    <t>Figure 3.3: Residents with No Health Insurance, 2017-2023.</t>
+  </si>
+  <si>
+    <t>Figure 3.4: Access to Parks &amp; Exercise Opportunities, 2020-2024.</t>
+  </si>
+  <si>
+    <t>Figure 4.1: Educational Attainment in Charlottesville and Albemarle, 2018-2023.</t>
+  </si>
+  <si>
+    <t>Figure 4.2: Educational Attainment by Race/Ethnicity for the population 25 years and over, 2023.</t>
+  </si>
+  <si>
+    <t>Figure 4.3: School Enrollment By Age Group in Charlottesville and Albemarle, 2018-2023.</t>
+  </si>
+  <si>
+    <t>Figure 4.4: Civic Sector Membership Organizations, 2017-2024.</t>
+  </si>
+  <si>
+    <t>Figure 5.1: Median Personal Earnings, 2012-2023.</t>
+  </si>
+  <si>
+    <t>Figure 5.2: Median Household Income by Race/Ethnicity, 2023.</t>
+  </si>
+  <si>
+    <t>Figure 5.3: Trends in Work and Living Locations in Charlottesville and Albemarle for 2002, 2012, 2022.</t>
+  </si>
+  <si>
+    <t>Figure 5.4: Housing Status, 2023.</t>
+  </si>
+  <si>
+    <t>Figure 5.5: Rent Burdened Households, 2023.</t>
+  </si>
+  <si>
+    <t>Figure 5.6: Cases Filed and Eviction Judgments within Local Court Jurisdictions, 2018-2024.</t>
+  </si>
+  <si>
+    <t>Figure 5.7: Point-in-Time Count of People Experiencing Homelessness in the Blue Ridge Area Continuum of Care (CoC), 2007-2024.</t>
+  </si>
+  <si>
+    <t>Figure 5.8: McKinney-Vento: Students Experiencing Homelessness Enrolled in Charlottesville City Schools and Albemarle County Public Schools, 2010-11 through 2022-23 school years.</t>
+  </si>
+  <si>
+    <t>Figure 5.9: Housing Inventory Count: Year-Round, Seasonal Beds and Permanent Housing Available for People Experiencing Homelessness in the Blue Ridge Area Continuum of Care (CoC), 2009-2024.</t>
   </si>
 </sst>
 </file>
@@ -801,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4916B05-6B9C-9944-8E5B-5BEFCEE7D2EB}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,210 +809,210 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4347D03C-1590-2F4F-9893-A9B6B200C539}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1040,330 +1036,330 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1387,330 +1383,330 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
